--- a/ValueSet-pco-category-valueset.xlsx
+++ b/ValueSet-pco-category-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T17:00:10+00:00</t>
+    <t>2024-08-13T17:11:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pco-category-valueset.xlsx
+++ b/ValueSet-pco-category-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T17:11:01+00:00</t>
+    <t>2024-08-13T22:41:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pco-category-valueset.xlsx
+++ b/ValueSet-pco-category-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T22:41:25+00:00</t>
+    <t>2024-08-15T16:20:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pco-category-valueset.xlsx
+++ b/ValueSet-pco-category-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-15T16:20:36+00:00</t>
+    <t>2024-08-17T01:13:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pco-category-valueset.xlsx
+++ b/ValueSet-pco-category-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-17T01:13:31+00:00</t>
+    <t>2024-08-17T01:14:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pco-category-valueset.xlsx
+++ b/ValueSet-pco-category-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-17T01:14:43+00:00</t>
+    <t>2024-08-17T01:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pco-category-valueset.xlsx
+++ b/ValueSet-pco-category-valueset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-17T01:18:03+00:00</t>
+    <t>2024-08-19T20:32:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -96,10 +96,79 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
-    <t>Codes</t>
-  </si>
-  <si>
-    <t>All codes</t>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>housing</t>
+  </si>
+  <si>
+    <t>Housing</t>
+  </si>
+  <si>
+    <t>access-to-services</t>
+  </si>
+  <si>
+    <t>Access To Services</t>
+  </si>
+  <si>
+    <t>caregiver-needs</t>
+  </si>
+  <si>
+    <t>Caregiver Needs</t>
+  </si>
+  <si>
+    <t>end-of-life</t>
+  </si>
+  <si>
+    <t>End Of Life</t>
+  </si>
+  <si>
+    <t>independence</t>
+  </si>
+  <si>
+    <t>Independence</t>
+  </si>
+  <si>
+    <t>legal</t>
+  </si>
+  <si>
+    <t>Legal</t>
+  </si>
+  <si>
+    <t>managing-conditions</t>
+  </si>
+  <si>
+    <t>Managing Conditions</t>
+  </si>
+  <si>
+    <t>medication-management</t>
+  </si>
+  <si>
+    <t>Medication Management</t>
+  </si>
+  <si>
+    <t>improving-health-and-wellness</t>
+  </si>
+  <si>
+    <t>Improving Health And Wellness</t>
+  </si>
+  <si>
+    <t>physical-function</t>
+  </si>
+  <si>
+    <t>Physical Function</t>
+  </si>
+  <si>
+    <t>social-functioning</t>
+  </si>
+  <si>
+    <t>Social Functioning</t>
+  </si>
+  <si>
+    <t>emotional-and-mental-health</t>
+  </si>
+  <si>
+    <t>Emotional And Mental Health</t>
   </si>
   <si>
     <t/>
@@ -373,7 +442,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -387,26 +456,120 @@
       <c r="A1" t="s" s="1">
         <v>27</v>
       </c>
+      <c r="B1" t="s" s="1">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>28</v>
       </c>
+      <c r="B2" t="s" s="2">
+        <v>29</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-pco-category-valueset.xlsx
+++ b/ValueSet-pco-category-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-19T20:32:01+00:00</t>
+    <t>2024-08-20T21:03:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pco-category-valueset.xlsx
+++ b/ValueSet-pco-category-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T21:03:59+00:00</t>
+    <t>2024-08-21T16:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pco-category-valueset.xlsx
+++ b/ValueSet-pco-category-valueset.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Category Code Ex" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from NCQA Goal Domain" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from VA Whole Health " r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-21T16:21:33+00:00</t>
+    <t>2024-08-27T18:37:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -177,7 +178,64 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/CodeSystem/pco-category-codes-example</t>
+    <t>http://mtnlotus.com/uv/pco/CodeSystem/ncqa-goal-domains</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>Moving the Body</t>
+  </si>
+  <si>
+    <t>mind</t>
+  </si>
+  <si>
+    <t>Power of the Mind</t>
+  </si>
+  <si>
+    <t>nourishment</t>
+  </si>
+  <si>
+    <t>Food &amp; Drink</t>
+  </si>
+  <si>
+    <t>recharge</t>
+  </si>
+  <si>
+    <t>Recharge</t>
+  </si>
+  <si>
+    <t>surroundings</t>
+  </si>
+  <si>
+    <t>Surroundings</t>
+  </si>
+  <si>
+    <t>personal-development</t>
+  </si>
+  <si>
+    <t>Personal Development</t>
+  </si>
+  <si>
+    <t>spirit-and-soul</t>
+  </si>
+  <si>
+    <t>Spirit &amp; Soul</t>
+  </si>
+  <si>
+    <t>relationships</t>
+  </si>
+  <si>
+    <t>Family, Friends &amp; Co-Workers</t>
+  </si>
+  <si>
+    <t>professional-care</t>
+  </si>
+  <si>
+    <t>Professional Care</t>
+  </si>
+  <si>
+    <t>http://mtnlotus.com/uv/pco/CodeSystem/va-whole-health</t>
   </si>
 </sst>
 </file>
@@ -575,4 +633,117 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/ValueSet-pco-category-valueset.xlsx
+++ b/ValueSet-pco-category-valueset.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-27T18:37:51+00:00</t>
+    <t>2024-08-28T01:59:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pco-category-valueset.xlsx
+++ b/ValueSet-pco-category-valueset.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T01:59:14+00:00</t>
+    <t>2024-08-28T17:18:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pco-category-valueset.xlsx
+++ b/ValueSet-pco-category-valueset.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T17:18:00+00:00</t>
+    <t>2024-08-28T19:37:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pco-category-valueset.xlsx
+++ b/ValueSet-pco-category-valueset.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T19:37:38+00:00</t>
+    <t>2024-08-28T21:15:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pco-category-valueset.xlsx
+++ b/ValueSet-pco-category-valueset.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
   <si>
     <t>Property</t>
   </si>
@@ -55,10 +55,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T21:15:57+00:00</t>
+    <t>2024-08-28T22:24:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -431,66 +434,68 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -512,122 +517,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -649,98 +654,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-pco-category-valueset.xlsx
+++ b/ValueSet-pco-category-valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T22:24:15+00:00</t>
+    <t>2024-09-06T15:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pco-category-valueset.xlsx
+++ b/ValueSet-pco-category-valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-06T15:21:17+00:00</t>
+    <t>2024-09-06T16:42:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pco-category-valueset.xlsx
+++ b/ValueSet-pco-category-valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-06T16:42:31+00:00</t>
+    <t>2024-09-06T21:25:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pco-category-valueset.xlsx
+++ b/ValueSet-pco-category-valueset.xlsx
@@ -7,8 +7,8 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from NCQA Goal Domain" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from VA Whole Health " r:id="rId5" sheetId="3"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-06T21:25:34+00:00</t>
+    <t>2024-09-10T20:59:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pco-category-valueset.xlsx
+++ b/ValueSet-pco-category-valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T20:59:56+00:00</t>
+    <t>2024-09-16T23:28:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pco-category-valueset.xlsx
+++ b/ValueSet-pco-category-valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T23:28:14+00:00</t>
+    <t>2024-09-17T14:31:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pco-category-valueset.xlsx
+++ b/ValueSet-pco-category-valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:31:31+00:00</t>
+    <t>2024-09-17T18:49:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pco-category-valueset.xlsx
+++ b/ValueSet-pco-category-valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T18:49:04+00:00</t>
+    <t>2024-09-17T23:38:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pco-category-valueset.xlsx
+++ b/ValueSet-pco-category-valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T23:38:01+00:00</t>
+    <t>2024-09-21T00:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pco-category-valueset.xlsx
+++ b/ValueSet-pco-category-valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-21T00:47:01+00:00</t>
+    <t>2024-09-22T11:40:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pco-category-valueset.xlsx
+++ b/ValueSet-pco-category-valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-22T11:40:07+00:00</t>
+    <t>2024-09-23T01:04:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pco-category-valueset.xlsx
+++ b/ValueSet-pco-category-valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T01:04:09+00:00</t>
+    <t>2024-10-22T17:57:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pco-category-valueset.xlsx
+++ b/ValueSet-pco-category-valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T17:57:32+00:00</t>
+    <t>2024-10-22T17:59:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pco-category-valueset.xlsx
+++ b/ValueSet-pco-category-valueset.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T17:59:45+00:00</t>
+    <t>2024-10-23T15:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pco-category-valueset.xlsx
+++ b/ValueSet-pco-category-valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T15:58:47+00:00</t>
+    <t>2024-10-23T18:44:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pco-category-valueset.xlsx
+++ b/ValueSet-pco-category-valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T18:44:18+00:00</t>
+    <t>2024-10-23T18:49:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pco-category-valueset.xlsx
+++ b/ValueSet-pco-category-valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T18:49:00+00:00</t>
+    <t>2024-10-24T19:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pco-category-valueset.xlsx
+++ b/ValueSet-pco-category-valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T19:50:25+00:00</t>
+    <t>2024-10-25T20:06:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pco-category-valueset.xlsx
+++ b/ValueSet-pco-category-valueset.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/ValueSet/pco-category-valueset</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-category-valueset</t>
   </si>
   <si>
     <t>Version</t>
@@ -61,25 +61,25 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-25T20:06:08+00:00</t>
+    <t>2024-11-25T08:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Mountain Lotus WellBeing LLC</t>
+    <t>HL7 International / Patient Care</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Mountain Lotus WellBeing LLC (http://mtnlotus.com)</t>
+    <t>HL7 International / Patient Care (http://www.hl7.org/Special/committees/patientcare, patientcare@lists.HL7.org)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>
@@ -181,7 +181,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/CodeSystem/ncqa-goal-domains</t>
+    <t>http://hl7.org/fhir/us/pco/CodeSystem/ncqa-goal-domains</t>
   </si>
   <si>
     <t>body</t>
@@ -238,7 +238,7 @@
     <t>Professional Care</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/CodeSystem/va-whole-health</t>
+    <t>http://hl7.org/fhir/us/pco/CodeSystem/va-whole-health</t>
   </si>
 </sst>
 </file>
